--- a/doc/测试/内部测试方案及结果.xlsx
+++ b/doc/测试/内部测试方案及结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>当前扫描记录查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类报表导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,10 +763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,6 +834,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/测试/内部测试方案及结果.xlsx
+++ b/doc/测试/内部测试方案及结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E3228-A92D-436D-A0CB-4945FF82C096}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试安排" sheetId="3" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,22 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用各类票券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看个人中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建议下一期加上功能：查看本周或本月运动打卡记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大家的健身数据，以后还能帮大家做本月健身报告哈哈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,13 +136,136 @@
   </si>
   <si>
     <t>各类报表导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组员</t>
+  </si>
+  <si>
+    <t>组员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用票券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用页面查看使用历史是否与实际符合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看本周使用记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检票员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增发票券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合增发操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看组员票券使用记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加组员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除组员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看二维码是否可以正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用二维码对一名组员进行检票操作，刷新页面查看是否实时更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过扫描历史页面进行查询操作，查看数据是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交增发操作，是否可以增发成功，增发后刷新页面应出现新待处理消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合增发操作，刷新页面查看票券是否增发成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描检票员角色提供的二维码，部分人点击使用，其他人不继续使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击增发票券按钮，随机选择增发数量。部分确认增发操作，部分取消增发操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议下一期加上功能：查看本周或本月运动打卡记录，大家的健身数据，以后还能帮大家做本月健身报告哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息显示是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面正确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看角色内可访问的页面是否出现与当前角色不符的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开待处理消息列表，点击消息查看详情，部分管理员复核其他管理员的操作，部分管理员复核自己的操作，部分管理员返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择不同日期，导出各类报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写组员信息增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除测试组员，删除自己的账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换各个角色，查看相应页面是否正确变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,13 +311,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,7 +343,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -300,6 +418,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,6 +470,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,11 +662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -762,81 +914,213 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>32</v>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
